--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A08B091C-4616-482D-8978-EE76077D56B7}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22ADF66D-31E7-4E16-B569-1F27AEA9E8E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,9 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>val_interfaz_A01</t>
-  </si>
-  <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz cartera_operaciones</t>
   </si>
   <si>
-    <t>val_interfaz_B01</t>
-  </si>
-  <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz cuadro_operaciones</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Procedimiento para borrar datos de tablas usadas en los procesos diarios</t>
+  </si>
+  <si>
+    <t>val_interfaz_a01</t>
+  </si>
+  <si>
+    <t>val_interfaz_b01</t>
   </si>
 </sst>
 </file>
@@ -104,6 +104,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -408,10 +412,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -419,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22ADF66D-31E7-4E16-B569-1F27AEA9E8E2}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17BD56E-AA2B-4A3A-8ECF-FE7F3CA95676}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimientos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>schema</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>val_interfaz_b01</t>
+  </si>
+  <si>
+    <t>proceso.genera_rdc01</t>
+  </si>
+  <si>
+    <t>Procedimiento para la generacion del RDC01</t>
   </si>
 </sst>
 </file>
@@ -373,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="71.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -429,6 +435,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17BD56E-AA2B-4A3A-8ECF-FE7F3CA95676}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C079EC3-6998-44CF-8455-983B5D3B862D}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimientos" sheetId="1" r:id="rId1"/>
+    <sheet name="Objetos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>schema</t>
   </si>
@@ -58,14 +59,82 @@
   </si>
   <si>
     <t>Procedimiento para la generacion del RDC01</t>
+  </si>
+  <si>
+    <t>Procedimiento</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Tablas_involucradas</t>
+  </si>
+  <si>
+    <t>reporte</t>
+  </si>
+  <si>
+    <t>rdc01_texto</t>
+  </si>
+  <si>
+    <t>rdc01_detalle</t>
+  </si>
+  <si>
+    <t>rdc01_final</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>cartera_operaciones</t>
+  </si>
+  <si>
+    <t>interno</t>
+  </si>
+  <si>
+    <t>tipo_persona_rel</t>
+  </si>
+  <si>
+    <t>operacion_titulo_rel</t>
+  </si>
+  <si>
+    <t>tabla_banco_126_rel</t>
+  </si>
+  <si>
+    <t>tipo_cambio</t>
+  </si>
+  <si>
+    <t>cuadro_operaciones</t>
+  </si>
+  <si>
+    <t>cartera_garantias</t>
+  </si>
+  <si>
+    <t>log_eventos</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>parametros_generales</t>
+  </si>
+  <si>
+    <t>rdc01_hist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,4 +519,177 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2995A567-7CFD-4B3D-85CC-8FBB121F91D4}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C079EC3-6998-44CF-8455-983B5D3B862D}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D91D4D-D229-4A83-8E6F-00FD9459EA7C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimientos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>schema</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>rdc01_hist</t>
+  </si>
+  <si>
+    <t>proceso.val_interfaz_c01</t>
+  </si>
+  <si>
+    <t>Procedimiento para validar calidad de informacion de la interfaz tipo_cambio</t>
   </si>
 </sst>
 </file>
@@ -449,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="71.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,6 +520,17 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -525,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2995A567-7CFD-4B3D-85CC-8FBB121F91D4}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36D91D4D-D229-4A83-8E6F-00FD9459EA7C}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9228CAB1-2C0A-4FF9-B405-4294C9E25094}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>schema</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz tipo_cambio</t>
+  </si>
+  <si>
+    <t>proceso.val_interfaz_e01</t>
+  </si>
+  <si>
+    <t>Procedimiento para validar calidad de informacion de la interfaz cartera_garantias</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,6 +537,17 @@
       </c>
       <c r="C6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9228CAB1-2C0A-4FF9-B405-4294C9E25094}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456618F0-ED43-42F4-9E1C-55BCE7B22854}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>schema</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz cartera_garantias</t>
+  </si>
+  <si>
+    <t>proceso.genera_hist_log</t>
+  </si>
+  <si>
+    <t>Procedimiento para generar historico de los log</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,6 +554,17 @@
       </c>
       <c r="C7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456618F0-ED43-42F4-9E1C-55BCE7B22854}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9228CAB1-2C0A-4FF9-B405-4294C9E25094}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>schema</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz cartera_garantias</t>
-  </si>
-  <si>
-    <t>proceso.genera_hist_log</t>
-  </si>
-  <si>
-    <t>Procedimiento para generar historico de los log</t>
   </si>
 </sst>
 </file>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,17 +548,6 @@
       </c>
       <c r="C7" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456618F0-ED43-42F4-9E1C-55BCE7B22854}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B35323-CA0A-4A54-9CB0-6FCCB26F6B70}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>schema</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Procedimiento para generar historico de los log</t>
+  </si>
+  <si>
+    <t>excluir_por_morosidad</t>
+  </si>
+  <si>
+    <t>Procedimiento para calcular si las operaciones morosas tienen 5 años o mas</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,6 +571,17 @@
       </c>
       <c r="C8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B35323-CA0A-4A54-9CB0-6FCCB26F6B70}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{225DCBE5-D594-419D-8B1A-B4DF5E72DCC8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>schema</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Procedimiento para calcular si las operaciones morosas tienen 5 años o mas</t>
+  </si>
+  <si>
+    <t>calculo_calendario_rdc20</t>
+  </si>
+  <si>
+    <t>Procedimiento que va calculando las fechas de envios para el RDC20, fecha de inicio se usa 20251107</t>
+  </si>
+  <si>
+    <t>proceso.genera_rdc20</t>
+  </si>
+  <si>
+    <t>Procedimiento para la generacion del RDC20</t>
   </si>
 </sst>
 </file>
@@ -473,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -582,6 +594,28 @@
       </c>
       <c r="C9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{225DCBE5-D594-419D-8B1A-B4DF5E72DCC8}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E529945-8D8A-4182-B6F9-46FA529B0571}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>schema</t>
   </si>
@@ -121,21 +121,12 @@
     <t>rdc01_hist</t>
   </si>
   <si>
-    <t>proceso.val_interfaz_c01</t>
-  </si>
-  <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz tipo_cambio</t>
   </si>
   <si>
-    <t>proceso.val_interfaz_e01</t>
-  </si>
-  <si>
     <t>Procedimiento para validar calidad de informacion de la interfaz cartera_garantias</t>
   </si>
   <si>
-    <t>proceso.genera_hist_log</t>
-  </si>
-  <si>
     <t>Procedimiento para generar historico de los log</t>
   </si>
   <si>
@@ -151,10 +142,28 @@
     <t>Procedimiento que va calculando las fechas de envios para el RDC20, fecha de inicio se usa 20251107</t>
   </si>
   <si>
-    <t>proceso.genera_rdc20</t>
-  </si>
-  <si>
     <t>Procedimiento para la generacion del RDC20</t>
+  </si>
+  <si>
+    <t>genera_rdc01</t>
+  </si>
+  <si>
+    <t>val_interfaz_c01</t>
+  </si>
+  <si>
+    <t>val_interfaz_e01</t>
+  </si>
+  <si>
+    <t>genera_hist_log</t>
+  </si>
+  <si>
+    <t>genera_rdc20</t>
+  </si>
+  <si>
+    <t>genera_hist_interface</t>
+  </si>
+  <si>
+    <t>Procedimiento que genera las carteras historicas para todas las interfaces</t>
   </si>
 </sst>
 </file>
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -557,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -568,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -601,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -612,10 +621,21 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E529945-8D8A-4182-B6F9-46FA529B0571}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CEFBF50-476E-4C13-BCCE-944698A4FEAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimientos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>schema</t>
   </si>
@@ -164,6 +164,36 @@
   </si>
   <si>
     <t>Procedimiento que genera las carteras historicas para todas las interfaces</t>
+  </si>
+  <si>
+    <t>genera_rdc22</t>
+  </si>
+  <si>
+    <t>Procedimiento para la generacion del RDC22</t>
+  </si>
+  <si>
+    <t>trunca_tablas_validador</t>
+  </si>
+  <si>
+    <t>Procedimiento para borrar datos de tablas usadas en los procesos de validacion</t>
+  </si>
+  <si>
+    <t>proceso.val_reporte_rdc22</t>
+  </si>
+  <si>
+    <t>proceso.val_reporte_rdc20</t>
+  </si>
+  <si>
+    <t>proceso.val_reporte_rdc01</t>
+  </si>
+  <si>
+    <t>Procedimiento para validar el archivo RDC01</t>
+  </si>
+  <si>
+    <t>Procedimiento para validar el archivo RDC20</t>
+  </si>
+  <si>
+    <t>Procedimiento para validar el archivo RDC22</t>
   </si>
 </sst>
 </file>
@@ -494,16 +524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="84.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -636,6 +666,61 @@
       </c>
       <c r="C12" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CEFBF50-476E-4C13-BCCE-944698A4FEAD}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD25E3ED-D331-4943-9C24-5987DED49F4A}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimientos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>schema</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Procedimiento para validar el archivo RDC22</t>
+  </si>
+  <si>
+    <t>genera_rdc30</t>
+  </si>
+  <si>
+    <t>Procedimiento para la generacion del RDC30</t>
   </si>
 </sst>
 </file>
@@ -255,10 +261,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,6 +723,17 @@
       </c>
       <c r="C17" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/procedimientos/procedimientos.xlsx
+++ b/Analisis/procedimientos/procedimientos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/procedimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD25E3ED-D331-4943-9C24-5987DED49F4A}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376FBCFC-7C5F-4593-9C4A-B4C71991BD2F}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimientos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>schema</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Procedimiento para la generacion del RDC30</t>
+  </si>
+  <si>
+    <t>genera_rdc31</t>
+  </si>
+  <si>
+    <t>Procedimiento para la generacion del RDC31</t>
   </si>
 </sst>
 </file>
@@ -261,6 +267,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,6 +744,17 @@
       </c>
       <c r="C18" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
